--- a/analysis/version87-debug and endgame.xlsx
+++ b/analysis/version87-debug and endgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="13980" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1773,8 +1773,8 @@
       </c>
       <c r="C67"/>
       <c r="D67">
-        <f>AVERAGE(D7:D44)</f>
-        <v>597.77368421052631</v>
+        <f>AVERAGE(D7:D46)</f>
+        <v>579.11</v>
       </c>
       <c r="E67" s="1">
         <f>AVERAGE(E7:E44)</f>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D69">
         <f>D67/A67</f>
-        <v>0.90099091389570074</v>
+        <v>0.87286018426060252</v>
       </c>
       <c r="E69">
         <f>E67/B67</f>

--- a/analysis/version87-debug and endgame.xlsx
+++ b/analysis/version87-debug and endgame.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>all programs are depth 10/18, rand off, 21000 kn/s</t>
-  </si>
-  <si>
     <t>version 86</t>
   </si>
   <si>
     <t>version 86 FIXED</t>
+  </si>
+  <si>
+    <t>all programs are depth 10/18, rand off, 21000 kl/s</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -504,17 +504,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
